--- a/biology/Biochimie/Acide_3-hydroxypentanoïque/Acide_3-hydroxypentanoïque.xlsx
+++ b/biology/Biochimie/Acide_3-hydroxypentanoïque/Acide_3-hydroxypentanoïque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acide_3-hydroxypentano%C3%AFque</t>
+          <t>Acide_3-hydroxypentanoïque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’acide 3-hydroxypentanoïque, ou acide β-hydroxypentanoïque, est un composé chimique de formule H3C–CH2–CHOH–CH2–COOH. Ce corps cétonique est biosyntétisé dans le foie à partir d'acides gras à nombre impair d'atomes de carbone et est acheminé par le sang depuis lequel il passe rapidement dans le cerveau.
-Contrairement aux corps 4-cétoniques, le β-hydroxypentanoate est anaplérotique, ce qui signifie qu'il peut remplir la réserve de métabolites du cycle de Krebs. La triheptanoïne, un triglycéride, est utilisée cliniquement pour produire le β-hydroxypentanoate[2].
+Contrairement aux corps 4-cétoniques, le β-hydroxypentanoate est anaplérotique, ce qui signifie qu'il peut remplir la réserve de métabolites du cycle de Krebs. La triheptanoïne, un triglycéride, est utilisée cliniquement pour produire le β-hydroxypentanoate.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acide_3-hydroxypentano%C3%AFque</t>
+          <t>Acide_3-hydroxypentanoïque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Stéréochimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'atome de carbone qui porte le groupe hydroxyle est asymétrique donc la molécule est chirale. L'acide  β-hydroxypentanoïque se présente donc sous la forme d'une paire d'énantiomères :
 acide R-(–)-3-hydroxypentanoïque de numéro CAS
-acide S-(+)[3]-3-hydroxypentanoïque de numéro CAS</t>
+acide S-(+)-3-hydroxypentanoïque de numéro CAS</t>
         </is>
       </c>
     </row>
